--- a/Engagement Fun Night Registration!.xlsx
+++ b/Engagement Fun Night Registration!.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindrakusuma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindrakusuma\Downloads\miscellaneous\wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826892B-AC58-4972-9E56-D1A702162B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C25E27-7833-45F2-96A4-F7E4E9895BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Grouping" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Grouping" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Per Group" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -4751,7 +4751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD54018-8F24-43E3-BAC1-E27B98D4AE03}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -5610,7 +5610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E2448B-832D-4E17-9B26-14BE99FE7755}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/Engagement Fun Night Registration!.xlsx
+++ b/Engagement Fun Night Registration!.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apcdeloitte-my.sharepoint.com/personal/fibrahim_deloitte_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindrakusuma\Downloads\miscellaneous\wordcloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{971F1EB2-461E-4520-9626-5B12B167E4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EA66EF-2E2E-4FD4-B4D2-D4A1E2C49BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Grouping" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Grouping" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Per Group" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -776,7 +776,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,16 +1361,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="10" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4789,17 +4789,17 @@
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>69</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>20</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>16</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>76</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>76</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>66</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>38</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>11</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>16</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>35</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>11</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>23</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>29</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>29</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>111</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>111</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>16</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>29</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>11</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>23</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>20</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>66</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>111</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>147</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>23</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>20</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>66</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
         <v>66</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>76</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>209</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>209</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>38</v>
       </c>
@@ -6328,15 +6328,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>38</v>
       </c>
@@ -6357,7 +6357,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>38</v>
       </c>
@@ -6378,7 +6378,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>38</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>38</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>38</v>
       </c>
@@ -6441,7 +6441,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
@@ -6451,7 +6451,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4"/>
@@ -6471,21 +6471,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E2448B-832D-4E17-9B26-14BE99FE7755}">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="19"/>
+    <col min="1" max="1" width="2.54296875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="18">
         <v>1</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
         <v>126</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>25</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>46</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>54</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>62</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>74</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>83</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>91</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>99</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>107</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>120</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>130</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>140</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>162</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>87</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
         <v>212</v>
       </c>
